--- a/遺物表.xlsx
+++ b/遺物表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coffe\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coffe\Desktop\スタレ用エクセル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DA767D-B0DD-47B8-A120-E621461E7280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999682D3-12BF-4E3D-B879-018B2E03D94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="13005" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="57">
   <si>
     <t>流雲無痕の過客</t>
   </si>
@@ -566,10 +566,10 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -656,9 +656,6 @@
       <c r="F2" t="s">
         <v>56</v>
       </c>
-      <c r="L2" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -702,9 +699,6 @@
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>56</v>
-      </c>
       <c r="J7" t="s">
         <v>56</v>
       </c>
@@ -713,13 +707,10 @@
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>56</v>
-      </c>
       <c r="I8" t="s">
         <v>56</v>
       </c>
-      <c r="L8" t="s">
+      <c r="O8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -738,6 +729,9 @@
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="O10" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -757,6 +751,9 @@
       <c r="C12" t="s">
         <v>56</v>
       </c>
+      <c r="K12" t="s">
+        <v>56</v>
+      </c>
       <c r="O12" t="s">
         <v>56</v>
       </c>
@@ -790,9 +787,6 @@
       <c r="D15" t="s">
         <v>56</v>
       </c>
-      <c r="G15" t="s">
-        <v>56</v>
-      </c>
       <c r="O15" t="s">
         <v>56</v>
       </c>
@@ -809,13 +803,10 @@
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="E17" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" t="s">
         <v>56</v>
       </c>
     </row>
@@ -826,6 +817,9 @@
       <c r="F18" t="s">
         <v>56</v>
       </c>
+      <c r="N18" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -861,6 +855,9 @@
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="F22" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
@@ -891,9 +888,6 @@
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C25" t="s">
-        <v>56</v>
-      </c>
       <c r="O25" t="s">
         <v>56</v>
       </c>
@@ -940,13 +934,7 @@
       <c r="A30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C30" t="s">
-        <v>56</v>
-      </c>
       <c r="M30" t="s">
-        <v>56</v>
-      </c>
-      <c r="O30" t="s">
         <v>56</v>
       </c>
     </row>
@@ -963,17 +951,11 @@
       <c r="N31" t="s">
         <v>56</v>
       </c>
-      <c r="O31" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C32" t="s">
-        <v>56</v>
-      </c>
       <c r="E32" t="s">
         <v>56</v>
       </c>
@@ -988,9 +970,6 @@
       <c r="H33" t="s">
         <v>56</v>
       </c>
-      <c r="L33" t="s">
-        <v>56</v>
-      </c>
       <c r="O33" t="s">
         <v>56</v>
       </c>
@@ -1021,9 +1000,6 @@
       <c r="C36" t="s">
         <v>56</v>
       </c>
-      <c r="M36" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
@@ -1043,9 +1019,6 @@
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C40" t="s">
-        <v>56</v>
       </c>
       <c r="D40" t="s">
         <v>56</v>
